--- a/CK_export/result/066808253.xlsx
+++ b/CK_export/result/066808253.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3883" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="353" uniqueCount="174">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -342,7 +342,7 @@
     <t>Var50</t>
   </si>
   <si>
-    <t>azo emlo-PTV_L</t>
+    <t>azo emlo-PTV</t>
   </si>
   <si>
     <t>Var51</t>
@@ -462,7 +462,7 @@
     <t>Var73</t>
   </si>
   <si>
-    <t>PTV eval_L</t>
+    <t>PTV eval</t>
   </si>
   <si>
     <t>Var74</t>
@@ -528,22 +528,13 @@
     <t>Var85</t>
   </si>
   <si>
-    <t>PTV_L</t>
+    <t>PTV</t>
   </si>
   <si>
     <t>Var86</t>
   </si>
   <si>
     <t>Var87</t>
-  </si>
-  <si>
-    <t>azo emlo-PTV</t>
-  </si>
-  <si>
-    <t>PTV eval</t>
-  </si>
-  <si>
-    <t>PTV</t>
   </si>
 </sst>
 </file>
@@ -1369,25 +1360,25 @@
         <v>89</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BE3" s="0" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="0" t="s">
         <v>122</v>
@@ -1438,49 +1429,49 @@
         <v>143</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="BW3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CB3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CC3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CD3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CE3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CF3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CG3" s="0" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="CH3" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="CI3" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="CJ3" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
